--- a/CE01ISSM/Omaha_Cal_Info_CE01ISSM_00001.xlsx
+++ b/CE01ISSM/Omaha_Cal_Info_CE01ISSM_00001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405" tabRatio="766"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="12720" windowHeight="12408" tabRatio="766" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -522,9 +522,6 @@
     <t>[2.68121E-03,1.11299E-04,2.25499E-06,2.32951E02,-3.19420E-01,-5.36404E01,4.55471E00]</t>
   </si>
   <si>
-    <t>[190.55, 191.34, 192.13, 192.92, 193.71, 194.51, 195.3, 196.09, 196.88, 197.68, 198.47, 199.27, 200.06, 200.85, 201.65, 202.44, 203.24, 204.04, 204.83, 205.63, 206.42, 207.22, 208.02, 208.82, 209.61, 210.41, 211.21, 212.01, 212.81, 213.6, 214.4, 215.2, 216, 216.8, 217.6, 218.4, 219.2, 220, 220.8, 221.6, 222.41, 223.21, 224.01, 224.81, 225.61, 226.42, 227.22, 228.02, 228.82, 229.63, 230.43, 231.23, 232.04, 232.84, 233.65, 234.45, 235.26, 236.06, 236.87, 237.67, 238.48, 239.28, 240.09, 240.89, 241.7, 242.51, 243.31, 244.12, 244.92, 245.73, 246.54, 247.35, 248.15, 248.96, 249.77, 250.58, 251.38, 252.19, 253, 253.81, 254.62, 255.43, 256.24, 257.05, 257.85, 258.66, 259.47, 260.28, 261.09, 261.9, 262.71, 263.52, 264.33, 265.14, 265.95, 266.76, 267.58, 268.39, 269.2, 270.01, 270.82, 271.63, 272.44, 273.25, 274.07, 274.88, 275.69, 276.5, 277.31, 278.13, 278.94, 279.75, 280.56, 281.37, 282.19, 283, 283.81, 284.63, 285.44, 286.25, 287.06, 287.88, 288.69, 289.5, 290.32, 291.13, 291.94, 292.76, 293.57, 294.38, 295.2, 296.01, 296.83, 297.64, 298.45, 299.27, 300.08, 300.89, 301.71, 302.52, 303.34, 304.15, 304.97, 305.78, 306.59, 307.41, 308.22, 309.04, 309.85, 310.67, 311.48, 312.29, 313.11, 313.92, 314.74, 315.55, 316.37, 317.18, 317.99, 318.81, 319.62, 320.44, 321.25, 322.07, 322.88, 323.69, 324.51, 325.32, 326.14, 326.95, 327.77, 328.58, 329.39, 330.21, 331.02, 331.84, 332.65, 333.47, 334.28, 335.09, 335.91, 336.72, 337.54, 338.35, 339.16, 339.98, 340.79, 341.6, 342.42, 343.23, 344.04, 344.86, 345.67, 346.48, 347.3, 348.11, 348.92, 349.74, 350.55, 351.36, 352.18, 352.99, 353.8, 354.61, 355.43, 356.24, 357.05, 357.86, 358.67, 359.49, 360.3, 361.11, 361.92, 362.73, 363.54, 364.36, 365.17, 365.98, 366.79, 367.6, 368.41, 369.22, 370.03, 370.84, 371.65, 372.46, 373.27, 374.08, 374.89, 375.7, 376.51, 377.32, 378.13, 378.94, 379.75, 380.56, 381.37, 382.18, 382.98, 383.79, 384.6, 385.41, 386.22, 387.02, 387.83, 388.64, 389.45, 390.25, 391.06, 391.87, 392.67, 393.48, 394.29, 395.09, 395.9, 396.7]</t>
-  </si>
-  <si>
     <t>[-0.00055028, 0.00257788, -0.0005409, -0.00053622, -0.00053153, 0.02812641, -0.01027138, 0.00115625, -0.00154755, 0.0239351, -0.00323191, 0.00806201, 0.0062828, -0.00521559, 0.00079437, 0.00484712, -0.0002254, -0.00066949, -0.00285016, 0.00402158, 0.00002118, 0.00328458, 0.00497107, 0.00667917, 0.00645042, 0.00684509, 0.00654062, 0.00659147, 0.00628363, 0.0060101, 0.00569915, 0.00539266, 0.00506008, 0.00472258, 0.00436829, 0.00404434, 0.00370658, 0.00337205, 0.00304583, 0.00274239, 0.00243403, 0.00216799, 0.00192412, 0.00169175, 0.00146954, 0.0012954, 0.00111292, 0.00096818, 0.00084163, 0.00071685, 0.00059703, 0.00051244, 0.00043465, 0.0003616, 0.00028865, 0.00022704, 0.00019887, 0.00014042, 0.00011062, 0.00008632, 0.0000659, 0.00002712, 0.0000198, 0.00001703, 0.00000618, -0.00000987, 0.00001091, 0.00000013, -0.00001885, -0.00000961, -0.00001445, -0.00000878, -0.0000074, -0.00001202, 0.00000556, -0.00000053, 0.00000569, 0.00000422, 0.00000572, -0.00001123, -0.0000075, -0.00000416, 0.00000862, 0.00000491, 0.00000106, 0.00000136, 0.0000132, 0.00002551, 0.00000692, 0.00003273, 0.00001571, 0.0000323, 0.00003281, 0.00004162, 0.00002187, 0.00000232, 0.00002316, 0.00002844, 0.00003266, 0.00005513, 0.00001487, 0.00003617, 0.000042, 0.00006548, 0.00010995, 0.00010571, 0.00011357, 0.00011046, 0.00012258, 0.00008938, 0.00008847, 0.00009534, 0.00013588, 0.00012841, 0.000139, 0.00013072, 0.00013307, 0.00017482, 0.00017709, 0.00019823, 0.000167, 0.00021128, 0.00019146, 0.00021614, 0.00020981, 0.00021487, 0.00023433, 0.00023203, 0.00023349, 0.0002713, 0.00026427, 0.00024357, 0.00023727, 0.00024522, 0.00025633, 0.00024101, 0.00025006, 0.00028799, 0.00029935, 0.00030887, 0.00033609, 0.00035979, 0.00033388, 0.00038715, 0.00035092, 0.0003367, 0.00034367, 0.00035856, 0.00033134, 0.0003409, 0.00036168, 0.00033919, 0.00033608, 0.00036538, 0.00035038, 0.00034959, 0.00032838, 0.00036052, 0.00036325, 0.00038293, 0.00037118, 0.00036519, 0.0003891, 0.00038998, 0.00038512, 0.00037724, 0.00038914, 0.00040171, 0.00041734, 0.00040417, 0.00040155, 0.00043638, 0.00044975, 0.00043149, 0.00043165, 0.00047302, 0.00046129, 0.00048538, 0.00047105, 0.00045477, 0.00046513, 0.00047292, 0.00049133, 0.0004565, 0.00051061, 0.00047451, 0.00047528, 0.00047207, 0.00044592, 0.00049939, 0.00050121, 0.00047756, 0.00054031, 0.00048255, 0.00051205, 0.00055229, 0.00052627, 0.00050341, 0.00047841, 0.00047147, 0.00051108, 0.00048934, 0.00048698, 0.00048699, 0.00047204, 0.00047728, 0.00047945, 0.00057666, 0.00057611, 0.00054432, 0.00060854, 0.00062917, 0.00064744, 0.00062365, 0.00054131, 0.00062655, 0.0005691, 0.0006226, 0.00062019, 0.00059339, 0.00048966, 0.00052446, 0.00056517, 0.00054307, 0.00064933, 0.00061565, 0.00053052, 0.0005294, 0.00066099, 0.00055377, 0.00064034, 0.00060711, 0.0006406, 0.00063361, 0.00061536, 0.00076464, 0.00075735, 0.00077427, 0.00078838, 0.00074032, 0.00064546, 0.00067074, 0.00064694, 0.00061842, 0.00067816, 0.00072621, 0.0006724, 0.00060491, 0.00072425, 0.0007001, 0.0007254, 0.00066943, 0.00074544, 0.00094327, 0.00082036, 0.0008251]</t>
   </si>
   <si>
@@ -535,9 +532,6 @@
   </si>
   <si>
     <t xml:space="preserve">[1.368, 1.41, 1.365, 1.354, 1.372, 1.322, 1.347] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2147709548.9, 2147154631.6, 2147523736.9, 2146915590.6, 2147485597.5, 2147057883.5, 2147226476] </t>
   </si>
   <si>
     <t xml:space="preserve">[0.000000199019863467, 0.000000195279432779, 0.000000213994711029, 0.000000210685091038, 0.000000193306549783, 0.00000020137401741, 0.000000224098692968] </t>
@@ -577,6 +571,12 @@
   </si>
   <si>
     <t>CE01ISSM-00001-DCL37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2147709548.9, 2147154631.6, 2147523736.9, 2146915590.6, 2147485597.5, 2147057883.5, 2147226476.0] </t>
+  </si>
+  <si>
+    <t>[190.55, 191.34, 192.13, 192.92, 193.71, 194.51, 195.3, 196.09, 196.88, 197.68, 198.47, 199.27, 200.06, 200.85, 201.65, 202.44, 203.24, 204.04, 204.83, 205.63, 206.42, 207.22, 208.02, 208.82, 209.61, 210.41, 211.21, 212.01, 212.81, 213.6, 214.4, 215.2, 216.0, 216.8, 217.6, 218.4, 219.2, 220.0, 220.8, 221.6, 222.41, 223.21, 224.01, 224.81, 225.61, 226.42, 227.22, 228.02, 228.82, 229.63, 230.43, 231.23, 232.04, 232.84, 233.65, 234.45, 235.26, 236.06, 236.87, 237.67, 238.48, 239.28, 240.09, 240.89, 241.7, 242.51, 243.31, 244.12, 244.92, 245.73, 246.54, 247.35, 248.15, 248.96, 249.77, 250.58, 251.38, 252.19, 253.0, 253.81, 254.62, 255.43, 256.24, 257.05, 257.85, 258.66, 259.47, 260.28, 261.09, 261.9, 262.71, 263.52, 264.33, 265.14, 265.95, 266.76, 267.58, 268.39, 269.2, 270.01, 270.82, 271.63, 272.44, 273.25, 274.07, 274.88, 275.69, 276.5, 277.31, 278.13, 278.94, 279.75, 280.56, 281.37, 282.19, 283.0, 283.81, 284.63, 285.44, 286.25, 287.06, 287.88, 288.69, 289.5, 290.32, 291.13, 291.94, 292.76, 293.57, 294.38, 295.2, 296.01, 296.83, 297.64, 298.45, 299.27, 300.08, 300.89, 301.71, 302.52, 303.34, 304.15, 304.97, 305.78, 306.59, 307.41, 308.22, 309.04, 309.85, 310.67, 311.48, 312.29, 313.11, 313.92, 314.74, 315.55, 316.37, 317.18, 317.99, 318.81, 319.62, 320.44, 321.25, 322.07, 322.88, 323.69, 324.51, 325.32, 326.14, 326.95, 327.77, 328.58, 329.39, 330.21, 331.02, 331.84, 332.65, 333.47, 334.28, 335.09, 335.91, 336.72, 337.54, 338.35, 339.16, 339.98, 340.79, 341.6, 342.42, 343.23, 344.04, 344.86, 345.67, 346.48, 347.3, 348.11, 348.92, 349.74, 350.55, 351.36, 352.18, 352.99, 353.8, 354.61, 355.43, 356.24, 357.05, 357.86, 358.67, 359.49, 360.3, 361.11, 361.92, 362.73, 363.54, 364.36, 365.17, 365.98, 366.79, 367.6, 368.41, 369.22, 370.03, 370.84, 371.65, 372.46, 373.27, 374.08, 374.89, 375.7, 376.51, 377.32, 378.13, 378.94, 379.75, 380.56, 381.37, 382.18, 382.98, 383.79, 384.6, 385.41, 386.22, 387.02, 387.83, 388.64, 389.45, 390.25, 391.06, 391.87, 392.67, 393.48, 394.29, 395.09, 395.9, 396.7]</t>
   </si>
 </sst>
 </file>
@@ -745,7 +745,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -773,6 +773,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="55"/>
         <bgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -972,7 +978,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1046,6 +1052,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1498,26 +1507,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="18" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="18" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" style="18" customWidth="1"/>
     <col min="12" max="12" width="12" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="18"/>
+    <col min="13" max="13" width="12.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -1555,7 +1564,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>105</v>
       </c>
@@ -1579,7 +1588,7 @@
         <v>134</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>135</v>
@@ -1600,19 +1609,19 @@
     <row r="5" spans="1:13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="17" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="18" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1623,23 +1632,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G187"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A191" sqref="A191:A193"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="42.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1662,13 +1671,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>115</v>
       </c>
@@ -1684,10 +1693,10 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -1695,7 +1704,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>116</v>
       </c>
@@ -1715,7 +1724,7 @@
         <v>44.658333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>116</v>
       </c>
@@ -1735,8 +1744,8 @@
         <v>-124.09565000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="9" customFormat="1" ht="13.95" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>129</v>
       </c>
@@ -1756,7 +1765,7 @@
         <v>44.658333333333331</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>129</v>
       </c>
@@ -1776,7 +1785,7 @@
         <v>-124.09565000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1784,7 +1793,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>117</v>
       </c>
@@ -1804,7 +1813,7 @@
         <v>17533</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>117</v>
       </c>
@@ -1824,7 +1833,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>117</v>
       </c>
@@ -1844,7 +1853,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>117</v>
       </c>
@@ -1864,7 +1873,7 @@
         <v>38502</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>117</v>
       </c>
@@ -1884,7 +1893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>117</v>
       </c>
@@ -1904,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="9" customFormat="1" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>117</v>
       </c>
@@ -1927,7 +1936,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1935,7 +1944,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>106</v>
       </c>
@@ -1955,7 +1964,7 @@
         <v>17533</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>106</v>
       </c>
@@ -1975,7 +1984,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>106</v>
       </c>
@@ -1995,7 +2004,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>106</v>
       </c>
@@ -2015,7 +2024,7 @@
         <v>38502</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>106</v>
       </c>
@@ -2035,7 +2044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>106</v>
       </c>
@@ -2055,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="9" customFormat="1" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>106</v>
       </c>
@@ -2078,7 +2087,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -2086,7 +2095,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>118</v>
       </c>
@@ -2106,7 +2115,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>118</v>
       </c>
@@ -2126,7 +2135,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>118</v>
       </c>
@@ -2146,7 +2155,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>118</v>
       </c>
@@ -2166,7 +2175,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>118</v>
       </c>
@@ -2186,7 +2195,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>118</v>
       </c>
@@ -2206,7 +2215,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>118</v>
       </c>
@@ -2226,7 +2235,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="6" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="6" customFormat="1" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>118</v>
       </c>
@@ -2246,7 +2255,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -2254,7 +2263,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>107</v>
       </c>
@@ -2274,7 +2283,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>107</v>
       </c>
@@ -2294,7 +2303,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>107</v>
       </c>
@@ -2314,7 +2323,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>107</v>
       </c>
@@ -2334,7 +2343,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>107</v>
       </c>
@@ -2354,7 +2363,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>107</v>
       </c>
@@ -2374,7 +2383,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>107</v>
       </c>
@@ -2394,7 +2403,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>107</v>
       </c>
@@ -2414,7 +2423,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -2422,7 +2431,7 @@
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>119</v>
       </c>
@@ -2442,7 +2451,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>119</v>
       </c>
@@ -2462,7 +2471,7 @@
         <v>1.874E-6</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>119</v>
       </c>
@@ -2482,7 +2491,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="13.95" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>119</v>
       </c>
@@ -2502,7 +2511,7 @@
         <v>1.21E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>119</v>
       </c>
@@ -2522,7 +2531,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>119</v>
       </c>
@@ -2542,7 +2551,7 @@
         <v>9.0700000000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>119</v>
       </c>
@@ -2565,7 +2574,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>119</v>
       </c>
@@ -2588,7 +2597,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>119</v>
       </c>
@@ -2611,7 +2620,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>119</v>
       </c>
@@ -2634,7 +2643,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -2642,7 +2651,7 @@
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>120</v>
       </c>
@@ -2662,7 +2671,7 @@
         <v>40.136783333333334</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>120</v>
       </c>
@@ -2682,7 +2691,7 @@
         <v>-70.769783329999996</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>120</v>
       </c>
@@ -2702,7 +2711,7 @@
         <v>1.2434620000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>120</v>
       </c>
@@ -2722,7 +2731,7 @@
         <v>2.7721290000000002E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>120</v>
       </c>
@@ -2742,7 +2751,7 @@
         <v>-1.3220250000000001E-6</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>120</v>
       </c>
@@ -2762,7 +2771,7 @@
         <v>1.903237E-7</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>120</v>
       </c>
@@ -2782,7 +2791,7 @@
         <v>-62.288150000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>120</v>
       </c>
@@ -2802,7 +2811,7 @@
         <v>53.313470000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>120</v>
       </c>
@@ -2822,7 +2831,7 @@
         <v>-0.26549719999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>120</v>
       </c>
@@ -2842,7 +2851,7 @@
         <v>524062.2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>120</v>
       </c>
@@ -2862,7 +2871,7 @@
         <v>4.4665900000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>120</v>
       </c>
@@ -2882,7 +2891,7 @@
         <v>-0.24184259999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>120</v>
       </c>
@@ -2902,7 +2911,7 @@
         <v>24.931000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>120</v>
       </c>
@@ -2922,7 +2931,7 @@
         <v>-6.0000009999999998E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>120</v>
       </c>
@@ -2942,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>120</v>
       </c>
@@ -2962,7 +2971,7 @@
         <v>-3.5512370000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>120</v>
       </c>
@@ -2982,7 +2991,7 @@
         <v>4.8943510000000001E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>120</v>
       </c>
@@ -3002,7 +3011,7 @@
         <v>-6.5080590000000003E-12</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>120</v>
       </c>
@@ -3022,7 +3031,7 @@
         <v>-0.98446789999999995</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>120</v>
       </c>
@@ -3042,7 +3051,7 @@
         <v>0.1510058</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>120</v>
       </c>
@@ -3062,7 +3071,7 @@
         <v>-3.8403919999999999E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>120</v>
       </c>
@@ -3082,7 +3091,7 @@
         <v>5.0744490000000001E-5</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>120</v>
       </c>
@@ -3102,7 +3111,7 @@
         <v>-9.5700000000000003E-8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>120</v>
       </c>
@@ -3122,8 +3131,8 @@
         <v>3.2499999999999998E-6</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>121</v>
       </c>
@@ -3143,7 +3152,7 @@
         <v>40.136783333333334</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>121</v>
       </c>
@@ -3163,7 +3172,7 @@
         <v>-70.769783329999996</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>121</v>
       </c>
@@ -3183,7 +3192,7 @@
         <v>1.2367820000000001E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>121</v>
       </c>
@@ -3203,7 +3212,7 @@
         <v>2.7745599999999998E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>121</v>
       </c>
@@ -3223,7 +3232,7 @@
         <v>-1.2309999999999999E-6</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
         <v>121</v>
       </c>
@@ -3243,7 +3252,7 @@
         <v>1.8774610000000001E-7</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>121</v>
       </c>
@@ -3263,7 +3272,7 @@
         <v>-64.706950000000006</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>121</v>
       </c>
@@ -3283,7 +3292,7 @@
         <v>54.75891</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>121</v>
       </c>
@@ -3303,7 +3312,7 @@
         <v>-0.8707395</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>121</v>
       </c>
@@ -3323,7 +3332,7 @@
         <v>524746.69999999995</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>121</v>
       </c>
@@ -3343,7 +3352,7 @@
         <v>10.36083</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>121</v>
       </c>
@@ -3363,7 +3372,7 @@
         <v>-0.3199536</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>121</v>
       </c>
@@ -3383,7 +3392,7 @@
         <v>24.856870000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>121</v>
       </c>
@@ -3403,7 +3412,7 @@
         <v>-6.2500000000000001E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>121</v>
       </c>
@@ -3423,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>121</v>
       </c>
@@ -3443,7 +3452,7 @@
         <v>3.9941650000000002E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>121</v>
       </c>
@@ -3463,7 +3472,7 @@
         <v>4.9145690000000001E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>121</v>
       </c>
@@ -3483,7 +3492,7 @@
         <v>-5.8585010000000003E-12</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>121</v>
       </c>
@@ -3503,7 +3512,7 @@
         <v>-0.98533409999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>121</v>
       </c>
@@ -3523,7 +3532,7 @@
         <v>0.15597839999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>121</v>
       </c>
@@ -3543,7 +3552,7 @@
         <v>-3.87642E-4</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>121</v>
       </c>
@@ -3563,7 +3572,7 @@
         <v>5.3320179999999997E-5</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>121</v>
       </c>
@@ -3583,7 +3592,7 @@
         <v>-9.5700000000000003E-8</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>121</v>
       </c>
@@ -3603,7 +3612,7 @@
         <v>3.2499999999999998E-6</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -3611,7 +3620,7 @@
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>122</v>
       </c>
@@ -3631,7 +3640,7 @@
         <v>44.658333333333331</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>122</v>
       </c>
@@ -3651,7 +3660,7 @@
         <v>-124.09565000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
         <v>122</v>
       </c>
@@ -3671,7 +3680,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -3679,7 +3688,7 @@
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>108</v>
       </c>
@@ -3699,7 +3708,7 @@
         <v>44.658333333333331</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>108</v>
       </c>
@@ -3719,7 +3728,7 @@
         <v>-124.09565000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>108</v>
       </c>
@@ -3739,7 +3748,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -3747,7 +3756,7 @@
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
         <v>123</v>
       </c>
@@ -3770,7 +3779,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>123</v>
       </c>
@@ -3793,7 +3802,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>123</v>
       </c>
@@ -3813,7 +3822,7 @@
         <v>20.063650903020498</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>123</v>
       </c>
@@ -3826,14 +3835,14 @@
       <c r="D117" s="9">
         <v>243</v>
       </c>
-      <c r="E117" s="9" t="s">
+      <c r="E117" s="27" t="s">
         <v>40</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>123</v>
       </c>
@@ -3850,10 +3859,10 @@
         <v>41</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
         <v>123</v>
       </c>
@@ -3870,10 +3879,10 @@
         <v>42</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
         <v>123</v>
       </c>
@@ -3890,10 +3899,10 @@
         <v>43</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -3901,7 +3910,7 @@
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
         <v>124</v>
       </c>
@@ -3918,10 +3927,10 @@
         <v>44</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
         <v>124</v>
       </c>
@@ -3934,14 +3943,14 @@
       <c r="D123" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E123" s="9" t="s">
+      <c r="E123" s="27" t="s">
         <v>45</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
         <v>124</v>
       </c>
@@ -3958,10 +3967,10 @@
         <v>46</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -3969,7 +3978,7 @@
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
         <v>125</v>
       </c>
@@ -3989,7 +3998,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>125</v>
       </c>
@@ -4009,7 +4018,7 @@
         <v>44.658333333333331</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>125</v>
       </c>
@@ -4029,7 +4038,7 @@
         <v>-124.09565000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>125</v>
       </c>
@@ -4049,7 +4058,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
         <v>125</v>
       </c>
@@ -4069,7 +4078,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>125</v>
       </c>
@@ -4089,7 +4098,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>125</v>
       </c>
@@ -4109,7 +4118,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
@@ -4117,7 +4126,7 @@
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
     </row>
-    <row r="134" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A134" s="24" t="s">
         <v>131</v>
       </c>
@@ -4137,7 +4146,7 @@
         <v>44.658333333333331</v>
       </c>
     </row>
-    <row r="135" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135" s="24" t="s">
         <v>131</v>
       </c>
@@ -4157,7 +4166,7 @@
         <v>-124.09565000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A136" s="24"/>
       <c r="B136" s="24"/>
       <c r="C136" s="24"/>
@@ -4165,7 +4174,7 @@
       <c r="E136" s="24"/>
       <c r="F136" s="24"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>126</v>
       </c>
@@ -4185,7 +4194,7 @@
         <v>603.86189999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>126</v>
       </c>
@@ -4205,7 +4214,7 @@
         <v>-13.9087</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>126</v>
       </c>
@@ -4225,7 +4234,7 @@
         <v>-997.23829999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>126</v>
       </c>
@@ -4245,7 +4254,7 @@
         <v>2.2398000000000001E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>126</v>
       </c>
@@ -4265,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>126</v>
       </c>
@@ -4288,7 +4297,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>126</v>
       </c>
@@ -4308,7 +4317,7 @@
         <v>-0.1447</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
         <v>126</v>
       </c>
@@ -4331,7 +4340,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>126</v>
       </c>
@@ -4351,7 +4360,7 @@
         <v>27.660640000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>126</v>
       </c>
@@ -4371,7 +4380,7 @@
         <v>0.61512900000000004</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>126</v>
       </c>
@@ -4391,7 +4400,7 @@
         <v>18.523299999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>126</v>
       </c>
@@ -4411,7 +4420,7 @@
         <v>25.793759999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>126</v>
       </c>
@@ -4431,7 +4440,7 @@
         <v>5.8431860000000002</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>126</v>
       </c>
@@ -4451,7 +4460,7 @@
         <v>-3843.931</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
         <v>126</v>
       </c>
@@ -4471,7 +4480,7 @@
         <v>-9856.4</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>126</v>
       </c>
@@ -4491,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
         <v>126</v>
       </c>
@@ -4511,7 +4520,7 @@
         <v>8388.6</v>
       </c>
     </row>
-    <row r="154" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>126</v>
       </c>
@@ -4531,8 +4540,8 @@
         <v>125829.1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="156" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>130</v>
       </c>
@@ -4552,7 +4561,7 @@
         <v>-0.12920000000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>130</v>
       </c>
@@ -4572,7 +4581,7 @@
         <v>1.4294</v>
       </c>
     </row>
-    <row r="158" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>130</v>
       </c>
@@ -4592,7 +4601,7 @@
         <v>-2.4643000000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
         <v>130</v>
       </c>
@@ -4612,7 +4621,7 @@
         <v>14.69</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>130</v>
       </c>
@@ -4632,7 +4641,7 @@
         <v>19706</v>
       </c>
     </row>
-    <row r="161" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>130</v>
       </c>
@@ -4652,7 +4661,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="162" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="9" t="s">
         <v>130</v>
       </c>
@@ -4672,7 +4681,7 @@
         <v>3073</v>
       </c>
     </row>
-    <row r="163" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
         <v>130</v>
       </c>
@@ -4692,7 +4701,7 @@
         <v>44327</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
@@ -4700,7 +4709,7 @@
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
         <v>109</v>
       </c>
@@ -4720,7 +4729,7 @@
         <v>-0.1754</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>109</v>
       </c>
@@ -4740,7 +4749,7 @@
         <v>1.6986000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>109</v>
       </c>
@@ -4760,7 +4769,7 @@
         <v>-2.8828</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>109</v>
       </c>
@@ -4780,7 +4789,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>109</v>
       </c>
@@ -4800,7 +4809,7 @@
         <v>19706</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
         <v>109</v>
       </c>
@@ -4820,7 +4829,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="9" t="s">
         <v>109</v>
       </c>
@@ -4840,7 +4849,7 @@
         <v>3073</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>109</v>
       </c>
@@ -4860,7 +4869,7 @@
         <v>44327</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="9"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
@@ -4868,12 +4877,12 @@
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
     </row>
-    <row r="174" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G174" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
@@ -4881,11 +4890,11 @@
       <c r="E175" s="9"/>
       <c r="F175" s="9"/>
       <c r="G175" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="9" t="s">
         <v>110</v>
       </c>
@@ -4896,15 +4905,15 @@
         <v>1</v>
       </c>
       <c r="D177" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E177" s="9"/>
       <c r="F177" s="9"/>
       <c r="G177" s="26" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
         <v>111</v>
       </c>
@@ -4915,15 +4924,15 @@
         <v>1</v>
       </c>
       <c r="D178" s="26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E178" s="9"/>
       <c r="F178" s="9"/>
       <c r="G178" s="26" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
         <v>112</v>
       </c>
@@ -4934,15 +4943,15 @@
         <v>1</v>
       </c>
       <c r="D179" s="26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E179" s="9"/>
       <c r="F179" s="9"/>
       <c r="G179" s="26" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="9"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
@@ -4951,7 +4960,7 @@
       <c r="F180" s="9"/>
       <c r="G180" s="26"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
         <v>127</v>
       </c>
@@ -4962,15 +4971,15 @@
         <v>1</v>
       </c>
       <c r="D181" s="26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
       <c r="G181" s="26" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="9" t="s">
         <v>128</v>
       </c>
@@ -4981,15 +4990,15 @@
         <v>1</v>
       </c>
       <c r="D182" s="26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E182" s="9"/>
       <c r="F182" s="9"/>
       <c r="G182" s="26" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="9" t="s">
         <v>113</v>
       </c>
@@ -5000,15 +5009,15 @@
         <v>1</v>
       </c>
       <c r="D183" s="26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
       <c r="G183" s="26" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="9" t="s">
         <v>114</v>
       </c>
@@ -5019,15 +5028,15 @@
         <v>1</v>
       </c>
       <c r="D184" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E184" s="9"/>
       <c r="F184" s="9"/>
       <c r="G184" s="26" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="9"/>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
@@ -5035,7 +5044,7 @@
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="9"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
@@ -5043,7 +5052,7 @@
       <c r="E186" s="9"/>
       <c r="F186" s="9"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="9"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
@@ -5064,13 +5073,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>3.2607999999999998E-2</v>
       </c>
@@ -5183,7 +5192,7 @@
         <v>-6.7879999999999998E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3.1981999999999997E-2</v>
       </c>
@@ -5296,7 +5305,7 @@
         <v>-9.0379999999999992E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3.1838999999999999E-2</v>
       </c>
@@ -5409,7 +5418,7 @@
         <v>-1.2784999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3.3415E-2</v>
       </c>
@@ -5522,7 +5531,7 @@
         <v>-1.4241999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3.1706999999999999E-2</v>
       </c>
@@ -5635,7 +5644,7 @@
         <v>-1.5689999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2.8191999999999998E-2</v>
       </c>
@@ -5748,7 +5757,7 @@
         <v>-1.5689999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2.5926000000000001E-2</v>
       </c>
@@ -5861,7 +5870,7 @@
         <v>-1.4907999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2.3120999999999999E-2</v>
       </c>
@@ -5974,7 +5983,7 @@
         <v>-1.3955E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2.0518999999999999E-2</v>
       </c>
@@ -6087,7 +6096,7 @@
         <v>-1.2866000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1.8012E-2</v>
       </c>
@@ -6200,7 +6209,7 @@
         <v>-1.1461000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1.5788E-2</v>
       </c>
@@ -6313,7 +6322,7 @@
         <v>-1.0491E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.4296E-2</v>
       </c>
@@ -6426,7 +6435,7 @@
         <v>-9.3559999999999997E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.2486000000000001E-2</v>
       </c>
@@ -6539,7 +6548,7 @@
         <v>-8.4250000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.1029000000000001E-2</v>
       </c>
@@ -6652,7 +6661,7 @@
         <v>-7.3689999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9.9950000000000004E-3</v>
       </c>
@@ -6765,7 +6774,7 @@
         <v>-6.5069999999999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8.8859999999999998E-3</v>
       </c>
@@ -6878,7 +6887,7 @@
         <v>-5.5490000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8.4919999999999995E-3</v>
       </c>
@@ -6991,7 +7000,7 @@
         <v>-4.8009999999999997E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>7.8650000000000005E-3</v>
       </c>
@@ -7104,7 +7113,7 @@
         <v>-4.2209999999999999E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>7.417E-3</v>
       </c>
@@ -7217,7 +7226,7 @@
         <v>-3.5720000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>6.5030000000000001E-3</v>
       </c>
@@ -7330,7 +7339,7 @@
         <v>-3.091E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>6.2940000000000001E-3</v>
       </c>
@@ -7443,7 +7452,7 @@
         <v>-2.3909999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5.888E-3</v>
       </c>
@@ -7556,7 +7565,7 @@
         <v>-1.8489999999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5.2989999999999999E-3</v>
       </c>
@@ -7669,7 +7678,7 @@
         <v>-1.325E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5.0169999999999998E-3</v>
       </c>
@@ -7782,7 +7791,7 @@
         <v>-8.0199999999999998E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5.0650000000000001E-3</v>
       </c>
@@ -7895,7 +7904,7 @@
         <v>-3.0899999999999998E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4.9829999999999996E-3</v>
       </c>
@@ -8008,7 +8017,7 @@
         <v>-4.0000000000000003E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5.202E-3</v>
       </c>
@@ -8121,7 +8130,7 @@
         <v>3.2200000000000002E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5.3839999999999999E-3</v>
       </c>
@@ -8234,7 +8243,7 @@
         <v>5.3399999999999997E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>5.7159999999999997E-3</v>
       </c>
@@ -8347,7 +8356,7 @@
         <v>6.3900000000000003E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5.868E-3</v>
       </c>
@@ -8460,7 +8469,7 @@
         <v>6.7900000000000002E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>6.2969999999999996E-3</v>
       </c>
@@ -8573,7 +8582,7 @@
         <v>6.0400000000000004E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>6.1590000000000004E-3</v>
       </c>
@@ -8686,7 +8695,7 @@
         <v>4.1899999999999999E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6.2189999999999997E-3</v>
       </c>
@@ -8799,7 +8808,7 @@
         <v>2.63E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>5.7920000000000003E-3</v>
       </c>
@@ -8912,7 +8921,7 @@
         <v>9.7999999999999997E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>5.6030000000000003E-3</v>
       </c>
@@ -9025,7 +9034,7 @@
         <v>-9.6000000000000002E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>5.4390000000000003E-3</v>
       </c>
@@ -9138,7 +9147,7 @@
         <v>-2.0900000000000001E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>5.5570000000000003E-3</v>
       </c>
@@ -9251,7 +9260,7 @@
         <v>-3.59E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5.5570000000000003E-3</v>
       </c>
@@ -9364,7 +9373,7 @@
         <v>-4.6200000000000001E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5.6280000000000002E-3</v>
       </c>
@@ -9477,7 +9486,7 @@
         <v>-5.3899999999999998E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5.7149999999999996E-3</v>
       </c>
@@ -9590,7 +9599,7 @@
         <v>-6.0899999999999995E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5.6280000000000002E-3</v>
       </c>
@@ -9703,7 +9712,7 @@
         <v>-6.2299999999999996E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5.901E-3</v>
       </c>
@@ -9816,7 +9825,7 @@
         <v>-6.7699999999999998E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5.8580000000000004E-3</v>
       </c>
@@ -9929,7 +9938,7 @@
         <v>-6.8499999999999995E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7.228E-3</v>
       </c>
@@ -10042,7 +10051,7 @@
         <v>-2.8319999999999999E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>7.2909999999999997E-3</v>
       </c>
@@ -10155,7 +10164,7 @@
         <v>-3.0430000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>7.2529999999999999E-3</v>
       </c>
@@ -10268,7 +10277,7 @@
         <v>-3.2390000000000001E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>7.345E-3</v>
       </c>
@@ -10381,7 +10390,7 @@
         <v>-3.3700000000000002E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>7.3590000000000001E-3</v>
       </c>
@@ -10494,7 +10503,7 @@
         <v>-3.4870000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>7.2370000000000004E-3</v>
       </c>
@@ -10607,7 +10616,7 @@
         <v>-3.4269999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>7.0619999999999997E-3</v>
       </c>
@@ -10720,7 +10729,7 @@
         <v>-3.313E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>6.9189999999999998E-3</v>
       </c>
@@ -10833,7 +10842,7 @@
         <v>-3.1359999999999999E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>6.8269999999999997E-3</v>
       </c>
@@ -10946,7 +10955,7 @@
         <v>-2.7829999999999999E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>6.5989999999999998E-3</v>
       </c>
@@ -11059,7 +11068,7 @@
         <v>-2.601E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>6.3749999999999996E-3</v>
       </c>
@@ -11172,7 +11181,7 @@
         <v>-2.3570000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>6.1700000000000001E-3</v>
       </c>
@@ -11285,7 +11294,7 @@
         <v>-2.0860000000000002E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>5.9550000000000002E-3</v>
       </c>
@@ -11398,7 +11407,7 @@
         <v>-1.8090000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5.7060000000000001E-3</v>
       </c>
@@ -11511,7 +11520,7 @@
         <v>-1.6080000000000001E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>5.4279999999999997E-3</v>
       </c>
@@ -11624,7 +11633,7 @@
         <v>-1.4480000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>5.1919999999999996E-3</v>
       </c>
@@ -11737,7 +11746,7 @@
         <v>-1.232E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>4.8929999999999998E-3</v>
       </c>
@@ -11850,7 +11859,7 @@
         <v>-1.0330000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>4.6360000000000004E-3</v>
       </c>
@@ -11963,7 +11972,7 @@
         <v>-7.3300000000000004E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4.2509999999999996E-3</v>
       </c>
@@ -12076,7 +12085,7 @@
         <v>-5.1199999999999998E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>4.1000000000000003E-3</v>
       </c>
@@ -12189,7 +12198,7 @@
         <v>-2.5500000000000002E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3.9940000000000002E-3</v>
       </c>
@@ -12302,7 +12311,7 @@
         <v>1.8E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>3.6310000000000001E-3</v>
       </c>
@@ -12415,7 +12424,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>3.6240000000000001E-3</v>
       </c>
@@ -12528,7 +12537,7 @@
         <v>3.9399999999999998E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3.362E-3</v>
       </c>
@@ -12641,7 +12650,7 @@
         <v>5.3600000000000002E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3.2399999999999998E-3</v>
       </c>
@@ -12754,7 +12763,7 @@
         <v>6.1700000000000004E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>3.0460000000000001E-3</v>
       </c>
@@ -12867,7 +12876,7 @@
         <v>6.8400000000000004E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2.8149999999999998E-3</v>
       </c>
@@ -12980,7 +12989,7 @@
         <v>6.5399999999999996E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2.454E-3</v>
       </c>
@@ -13093,7 +13102,7 @@
         <v>6.0400000000000004E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2.3999999999999998E-3</v>
       </c>
@@ -13206,7 +13215,7 @@
         <v>4.5100000000000001E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2.2209999999999999E-3</v>
       </c>
@@ -13319,7 +13328,7 @@
         <v>3.3599999999999998E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2.1849999999999999E-3</v>
       </c>
@@ -13432,7 +13441,7 @@
         <v>1.6000000000000001E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1.7489999999999999E-3</v>
       </c>
@@ -13545,7 +13554,7 @@
         <v>7.8999999999999996E-5</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1.5790000000000001E-3</v>
       </c>
@@ -13658,7 +13667,7 @@
         <v>9.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1.4E-3</v>
       </c>
@@ -13771,7 +13780,7 @@
         <v>-1.5100000000000001E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1.444E-3</v>
       </c>
@@ -13884,7 +13893,7 @@
         <v>-1.8100000000000001E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>9.6100000000000005E-4</v>
       </c>
@@ -13997,7 +14006,7 @@
         <v>-2.9599999999999998E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1.1720000000000001E-3</v>
       </c>
@@ -14110,7 +14119,7 @@
         <v>-2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1.0820000000000001E-3</v>
       </c>
@@ -14223,7 +14232,7 @@
         <v>-2.7599999999999999E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1.255E-3</v>
       </c>
@@ -14336,7 +14345,7 @@
         <v>-2.3000000000000001E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1.6149999999999999E-3</v>
       </c>
@@ -14449,7 +14458,7 @@
         <v>-2.3000000000000001E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1.768E-3</v>
       </c>
@@ -14562,7 +14571,7 @@
         <v>-1.46E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1.8630000000000001E-3</v>
       </c>
@@ -14688,9 +14697,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>6.8988999999999995E-2</v>
       </c>
@@ -14803,7 +14812,7 @@
         <v>-3.1857999999999997E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>6.2026999999999999E-2</v>
       </c>
@@ -14916,7 +14925,7 @@
         <v>-2.6359E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5.6153000000000002E-2</v>
       </c>
@@ -15029,7 +15038,7 @@
         <v>-2.4868999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5.0802E-2</v>
       </c>
@@ -15142,7 +15151,7 @@
         <v>-2.1495E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4.7035E-2</v>
       </c>
@@ -15255,7 +15264,7 @@
         <v>-1.8651999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4.3123000000000002E-2</v>
       </c>
@@ -15368,7 +15377,7 @@
         <v>-1.6983000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3.977E-2</v>
       </c>
@@ -15481,7 +15490,7 @@
         <v>-1.4222E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3.6859000000000003E-2</v>
       </c>
@@ -15594,7 +15603,7 @@
         <v>-1.2846E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3.4925999999999999E-2</v>
       </c>
@@ -15707,7 +15716,7 @@
         <v>-1.1253000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3.2238000000000003E-2</v>
       </c>
@@ -15820,7 +15829,7 @@
         <v>-9.8029999999999992E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3.1571000000000002E-2</v>
       </c>
@@ -15933,7 +15942,7 @@
         <v>-8.5929999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3.0047999999999998E-2</v>
       </c>
@@ -16046,7 +16055,7 @@
         <v>-7.6909999999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2.9189E-2</v>
       </c>
@@ -16159,7 +16168,7 @@
         <v>-6.6639999999999998E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2.8826999999999998E-2</v>
       </c>
@@ -16272,7 +16281,7 @@
         <v>-6.1939999999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2.7969999999999998E-2</v>
       </c>
@@ -16385,7 +16394,7 @@
         <v>-5.7239999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2.6387000000000001E-2</v>
       </c>
@@ -16498,7 +16507,7 @@
         <v>-5.3049999999999998E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2.5812000000000002E-2</v>
       </c>
@@ -16611,7 +16620,7 @@
         <v>-4.9220000000000002E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2.418E-2</v>
       </c>
@@ -16724,7 +16733,7 @@
         <v>-4.5360000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2.3161000000000001E-2</v>
       </c>
@@ -16837,7 +16846,7 @@
         <v>-4.0150000000000003E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2.1523E-2</v>
       </c>
@@ -16950,7 +16959,7 @@
         <v>-3.8830000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2.0261000000000001E-2</v>
       </c>
@@ -17063,7 +17072,7 @@
         <v>-3.725E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1.9640000000000001E-2</v>
       </c>
@@ -17176,7 +17185,7 @@
         <v>-3.7789999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1.8516999999999999E-2</v>
       </c>
@@ -17289,7 +17298,7 @@
         <v>-4.0039999999999997E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1.7485000000000001E-2</v>
       </c>
@@ -17402,7 +17411,7 @@
         <v>-4.1770000000000002E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1.6379000000000001E-2</v>
       </c>
@@ -17515,7 +17524,7 @@
         <v>-4.3049999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1.5379E-2</v>
       </c>
@@ -17628,7 +17637,7 @@
         <v>-4.4819999999999999E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1.4119E-2</v>
       </c>
@@ -17741,7 +17750,7 @@
         <v>-4.6369999999999996E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1.3101E-2</v>
       </c>
@@ -17854,7 +17863,7 @@
         <v>-4.7850000000000002E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1.2345999999999999E-2</v>
       </c>
@@ -17967,7 +17976,7 @@
         <v>-4.8869999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1.1398E-2</v>
       </c>
@@ -18080,7 +18089,7 @@
         <v>-4.9389999999999998E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1.1075E-2</v>
       </c>
@@ -18193,7 +18202,7 @@
         <v>-4.9509999999999997E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1.0799E-2</v>
       </c>
@@ -18306,7 +18315,7 @@
         <v>-4.8789999999999997E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1.0581E-2</v>
       </c>
@@ -18419,7 +18428,7 @@
         <v>-4.8430000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1.0396000000000001E-2</v>
       </c>
@@ -18532,7 +18541,7 @@
         <v>-4.7720000000000002E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1.0129000000000001E-2</v>
       </c>
@@ -18645,7 +18654,7 @@
         <v>-4.7499999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1.0155000000000001E-2</v>
       </c>
@@ -18758,7 +18767,7 @@
         <v>-4.5450000000000004E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1.0370000000000001E-2</v>
       </c>
@@ -18871,7 +18880,7 @@
         <v>-4.4770000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1.0428E-2</v>
       </c>
@@ -18984,7 +18993,7 @@
         <v>-4.437E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1.0378999999999999E-2</v>
       </c>
@@ -19097,7 +19106,7 @@
         <v>-4.3550000000000004E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1.0276E-2</v>
       </c>
@@ -19210,7 +19219,7 @@
         <v>-4.1799999999999997E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>9.8180000000000003E-3</v>
       </c>
@@ -19323,7 +19332,7 @@
         <v>-4.0289999999999996E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>9.7339999999999996E-3</v>
       </c>
@@ -19436,7 +19445,7 @@
         <v>-3.7499999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>9.5429999999999994E-3</v>
       </c>
@@ -19549,7 +19558,7 @@
         <v>-3.5750000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>6.5979999999999997E-3</v>
       </c>
@@ -19662,7 +19671,7 @@
         <v>-1.31E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>6.2110000000000004E-3</v>
       </c>
@@ -19775,7 +19784,7 @@
         <v>-1.1280000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>6.025E-3</v>
       </c>
@@ -19888,7 +19897,7 @@
         <v>-9.3199999999999999E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5.9220000000000002E-3</v>
       </c>
@@ -20001,7 +20010,7 @@
         <v>-7.0200000000000004E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5.7159999999999997E-3</v>
       </c>
@@ -20114,7 +20123,7 @@
         <v>-5.2099999999999998E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>5.568E-3</v>
       </c>
@@ -20227,7 +20236,7 @@
         <v>-2.5700000000000001E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>5.8409999999999998E-3</v>
       </c>
@@ -20340,7 +20349,7 @@
         <v>-1.56E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>6.0229999999999997E-3</v>
       </c>
@@ -20453,7 +20462,7 @@
         <v>-4.1E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>6.3039999999999997E-3</v>
       </c>
@@ -20566,7 +20575,7 @@
         <v>1.22E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>6.613E-3</v>
       </c>
@@ -20679,7 +20688,7 @@
         <v>-2.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>6.8490000000000001E-3</v>
       </c>
@@ -20792,7 +20801,7 @@
         <v>-8.7999999999999998E-5</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>7.0730000000000003E-3</v>
       </c>
@@ -20905,7 +20914,7 @@
         <v>-1.44E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>7.3179999999999999E-3</v>
       </c>
@@ -21018,7 +21027,7 @@
         <v>-1.8200000000000001E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>7.221E-3</v>
       </c>
@@ -21131,7 +21140,7 @@
         <v>-2.2000000000000001E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>7.4739999999999997E-3</v>
       </c>
@@ -21244,7 +21253,7 @@
         <v>-2.6800000000000001E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>7.4050000000000001E-3</v>
       </c>
@@ -21357,7 +21366,7 @@
         <v>-2.72E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>7.7159999999999998E-3</v>
       </c>
@@ -21470,7 +21479,7 @@
         <v>-3.6900000000000002E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>7.8779999999999996E-3</v>
       </c>
@@ -21583,7 +21592,7 @@
         <v>-5.1500000000000005E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>7.711E-3</v>
       </c>
@@ -21696,7 +21705,7 @@
         <v>-7.8200000000000003E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>8.5220000000000001E-3</v>
       </c>
@@ -21809,7 +21818,7 @@
         <v>-1.005E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>7.8050000000000003E-3</v>
       </c>
@@ -21922,7 +21931,7 @@
         <v>-1.3630000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>7.9389999999999999E-3</v>
       </c>
@@ -22035,7 +22044,7 @@
         <v>-1.663E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>8.201E-3</v>
       </c>
@@ -22148,7 +22157,7 @@
         <v>-2.1679999999999998E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>7.6470000000000002E-3</v>
       </c>
@@ -22261,7 +22270,7 @@
         <v>-2.5070000000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>8.3269999999999993E-3</v>
       </c>
@@ -22374,7 +22383,7 @@
         <v>-2.8839999999999998E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>8.1670000000000006E-3</v>
       </c>
@@ -22487,7 +22496,7 @@
         <v>-3.2980000000000002E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>7.8619999999999992E-3</v>
       </c>
@@ -22600,7 +22609,7 @@
         <v>-3.63E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>8.5979999999999997E-3</v>
       </c>
@@ -22713,7 +22722,7 @@
         <v>-4.0029999999999996E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>8.5059999999999997E-3</v>
       </c>
@@ -22826,7 +22835,7 @@
         <v>-4.3819999999999996E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>9.3390000000000001E-3</v>
       </c>
@@ -22939,7 +22948,7 @@
         <v>-4.6449999999999998E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1.0203E-2</v>
       </c>
@@ -23052,7 +23061,7 @@
         <v>-4.9439999999999996E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1.0092E-2</v>
       </c>
@@ -23165,7 +23174,7 @@
         <v>-5.0549999999999996E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1.1041E-2</v>
       </c>
@@ -23278,7 +23287,7 @@
         <v>-5.0959999999999998E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1.1403E-2</v>
       </c>
@@ -23391,7 +23400,7 @@
         <v>-5.1330000000000004E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1.1235E-2</v>
       </c>
@@ -23504,7 +23513,7 @@
         <v>-5.1120000000000002E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1.1882E-2</v>
       </c>
@@ -23617,7 +23626,7 @@
         <v>-4.9880000000000002E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1.1861E-2</v>
       </c>
@@ -23730,7 +23739,7 @@
         <v>-4.9579999999999997E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1.1341E-2</v>
       </c>
@@ -23843,7 +23852,7 @@
         <v>-4.7920000000000003E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1.1483E-2</v>
       </c>
@@ -23956,7 +23965,7 @@
         <v>-4.5970000000000004E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1.0511E-2</v>
       </c>
@@ -24069,7 +24078,7 @@
         <v>-4.5019999999999999E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1.0685E-2</v>
       </c>
@@ -24182,7 +24191,7 @@
         <v>-4.5310000000000003E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1.0293999999999999E-2</v>
       </c>
@@ -24308,9 +24317,9 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1.5507999999999999E-2</v>
       </c>
@@ -24417,7 +24426,7 @@
         <v>1.8010000000000001E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.5285999999999999E-2</v>
       </c>
@@ -24524,7 +24533,7 @@
         <v>-1.8240000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.779E-2</v>
       </c>
@@ -24631,7 +24640,7 @@
         <v>-6.404E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2.1801000000000001E-2</v>
       </c>
@@ -24738,7 +24747,7 @@
         <v>-9.6679999999999995E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2.5655000000000001E-2</v>
       </c>
@@ -24845,7 +24854,7 @@
         <v>-1.2507000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2.6013000000000001E-2</v>
       </c>
@@ -24952,7 +24961,7 @@
         <v>-1.3507999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2.3772000000000001E-2</v>
       </c>
@@ -25059,7 +25068,7 @@
         <v>-1.3667E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2.1617999999999998E-2</v>
       </c>
@@ -25166,7 +25175,7 @@
         <v>-1.3178E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2.1068E-2</v>
       </c>
@@ -25273,7 +25282,7 @@
         <v>-1.2356000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2.0163E-2</v>
       </c>
@@ -25380,7 +25389,7 @@
         <v>-1.2045999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1.9257E-2</v>
       </c>
@@ -25487,7 +25496,7 @@
         <v>-1.1982E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.8200999999999998E-2</v>
       </c>
@@ -25594,7 +25603,7 @@
         <v>-1.2017999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.5945000000000001E-2</v>
       </c>
@@ -25701,7 +25710,7 @@
         <v>-1.235E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.5146E-2</v>
       </c>
@@ -25808,7 +25817,7 @@
         <v>-1.2637000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.4383E-2</v>
       </c>
@@ -25915,7 +25924,7 @@
         <v>-1.2489E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.3436999999999999E-2</v>
       </c>
@@ -26022,7 +26031,7 @@
         <v>-1.2468E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.3067E-2</v>
       </c>
@@ -26129,7 +26138,7 @@
         <v>-1.2765E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.2071999999999999E-2</v>
       </c>
@@ -26236,7 +26245,7 @@
         <v>-1.2749E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.1603E-2</v>
       </c>
@@ -26343,7 +26352,7 @@
         <v>-1.2675000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.1221999999999999E-2</v>
       </c>
@@ -26450,7 +26459,7 @@
         <v>-1.2813E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1.0956E-2</v>
       </c>
@@ -26557,7 +26566,7 @@
         <v>-1.2779E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1.0579E-2</v>
       </c>
@@ -26664,7 +26673,7 @@
         <v>-1.2659E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1.0220999999999999E-2</v>
       </c>
@@ -26771,7 +26780,7 @@
         <v>-1.2681E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1.0038E-2</v>
       </c>
@@ -26878,7 +26887,7 @@
         <v>-1.2609E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>9.3670000000000003E-3</v>
       </c>
@@ -26985,7 +26994,7 @@
         <v>-1.2337000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>9.1319999999999995E-3</v>
       </c>
@@ -27092,7 +27101,7 @@
         <v>-1.2156999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>8.763E-3</v>
       </c>
@@ -27199,7 +27208,7 @@
         <v>-1.2031999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>8.5310000000000004E-3</v>
       </c>
@@ -27306,7 +27315,7 @@
         <v>-1.1762E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>8.4239999999999992E-3</v>
       </c>
@@ -27413,7 +27422,7 @@
         <v>-1.1408E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>8.3490000000000005E-3</v>
       </c>
@@ -27520,7 +27529,7 @@
         <v>-1.0985E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>8.6250000000000007E-3</v>
       </c>
@@ -27627,7 +27636,7 @@
         <v>-1.0558E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>8.9339999999999992E-3</v>
       </c>
@@ -27734,7 +27743,7 @@
         <v>-1.0005999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>9.2320000000000006E-3</v>
       </c>
@@ -27841,7 +27850,7 @@
         <v>-9.4629999999999992E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>9.8539999999999999E-3</v>
       </c>
@@ -27948,7 +27957,7 @@
         <v>-8.9390000000000008E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1.0147E-2</v>
       </c>
@@ -28055,7 +28064,7 @@
         <v>-8.4239999999999992E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1.0357999999999999E-2</v>
       </c>
@@ -28162,7 +28171,7 @@
         <v>-7.9050000000000006E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1.0397999999999999E-2</v>
       </c>
@@ -28269,7 +28278,7 @@
         <v>-7.4409999999999997E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1.0185E-2</v>
       </c>
@@ -28376,7 +28385,7 @@
         <v>-7.0060000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1.0137E-2</v>
       </c>
@@ -28483,7 +28492,7 @@
         <v>-6.7549999999999997E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9.9900000000000006E-3</v>
       </c>
@@ -28590,7 +28599,7 @@
         <v>-6.5380000000000004E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>9.9600000000000001E-3</v>
       </c>
@@ -28697,7 +28706,7 @@
         <v>-6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>9.9600000000000001E-3</v>
       </c>
@@ -28804,7 +28813,7 @@
         <v>-6.6410000000000002E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>9.7929999999999996E-3</v>
       </c>
@@ -28911,7 +28920,7 @@
         <v>-3.3149999999999998E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>8.9689999999999995E-3</v>
       </c>
@@ -29018,7 +29027,7 @@
         <v>-2.6909999999999998E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>8.3610000000000004E-3</v>
       </c>
@@ -29125,7 +29134,7 @@
         <v>-2.1640000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>7.7840000000000001E-3</v>
       </c>
@@ -29232,7 +29241,7 @@
         <v>-1.668E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>7.0390000000000001E-3</v>
       </c>
@@ -29339,7 +29348,7 @@
         <v>-1.3060000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>6.5189999999999996E-3</v>
       </c>
@@ -29446,7 +29455,7 @@
         <v>-9.3199999999999999E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>5.862E-3</v>
       </c>
@@ -29553,7 +29562,7 @@
         <v>-8.6899999999999998E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>5.3460000000000001E-3</v>
       </c>
@@ -29660,7 +29669,7 @@
         <v>-8.0500000000000005E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>5.1500000000000001E-3</v>
       </c>
@@ -29767,7 +29776,7 @@
         <v>-9.0600000000000001E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>4.6950000000000004E-3</v>
       </c>
@@ -29874,7 +29883,7 @@
         <v>-1.289E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>4.1549999999999998E-3</v>
       </c>
@@ -29981,7 +29990,7 @@
         <v>-1.5740000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3.699E-3</v>
       </c>
@@ -30088,7 +30097,7 @@
         <v>-1.9139999999999999E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3.1909999999999998E-3</v>
       </c>
@@ -30195,7 +30204,7 @@
         <v>-2.2230000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3.2039999999999998E-3</v>
       </c>
@@ -30302,7 +30311,7 @@
         <v>-2.6410000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2.6589999999999999E-3</v>
       </c>
@@ -30409,7 +30418,7 @@
         <v>-2.826E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2.382E-3</v>
       </c>
@@ -30516,7 +30525,7 @@
         <v>-3.0639999999999999E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2.1069999999999999E-3</v>
       </c>
@@ -30623,7 +30632,7 @@
         <v>-3.3449999999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2.0460000000000001E-3</v>
       </c>
@@ -30730,7 +30739,7 @@
         <v>-3.4740000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1.704E-3</v>
       </c>
@@ -30837,7 +30846,7 @@
         <v>-3.6059999999999998E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1.3860000000000001E-3</v>
       </c>
@@ -30944,7 +30953,7 @@
         <v>-3.7520000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1.1919999999999999E-3</v>
       </c>
@@ -31051,7 +31060,7 @@
         <v>-3.8930000000000002E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1.0839999999999999E-3</v>
       </c>
@@ -31158,7 +31167,7 @@
         <v>-3.8860000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>6.0899999999999995E-4</v>
       </c>
@@ -31265,7 +31274,7 @@
         <v>-3.9699999999999996E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>3.6299999999999999E-4</v>
       </c>
@@ -31372,7 +31381,7 @@
         <v>-3.8769999999999998E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>-1.26E-4</v>
       </c>
@@ -31479,7 +31488,7 @@
         <v>-3.7789999999999998E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>-4.4499999999999997E-4</v>
       </c>
@@ -31586,7 +31595,7 @@
         <v>-3.7439999999999999E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>-5.2499999999999997E-4</v>
       </c>
@@ -31693,7 +31702,7 @@
         <v>-3.7460000000000002E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>-5.9900000000000003E-4</v>
       </c>
@@ -31800,7 +31809,7 @@
         <v>-3.7450000000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>-3.9199999999999999E-4</v>
       </c>
@@ -31907,7 +31916,7 @@
         <v>-3.813E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>-3.3399999999999999E-4</v>
       </c>
@@ -32014,7 +32023,7 @@
         <v>-3.751E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>-4.0000000000000003E-5</v>
       </c>
@@ -32121,7 +32130,7 @@
         <v>-3.5790000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>3.0200000000000002E-4</v>
       </c>
@@ -32228,7 +32237,7 @@
         <v>-3.359E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>6.5799999999999995E-4</v>
       </c>
@@ -32335,7 +32344,7 @@
         <v>-3.1250000000000002E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>8.6600000000000002E-4</v>
       </c>
@@ -32442,7 +32451,7 @@
         <v>-2.8389999999999999E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>9.19E-4</v>
       </c>
@@ -32549,7 +32558,7 @@
         <v>-2.519E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>7.4100000000000001E-4</v>
       </c>
@@ -32656,7 +32665,7 @@
         <v>-2.2469999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>8.7100000000000003E-4</v>
       </c>
@@ -32763,7 +32772,7 @@
         <v>-2.0830000000000002E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1.0189999999999999E-3</v>
       </c>
@@ -32870,7 +32879,7 @@
         <v>-1.905E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>9.3400000000000004E-4</v>
       </c>
@@ -32977,7 +32986,7 @@
         <v>-1.8060000000000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1.0629999999999999E-3</v>
       </c>
@@ -33084,7 +33093,7 @@
         <v>-1.686E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1.0610000000000001E-3</v>
       </c>
@@ -33191,7 +33200,7 @@
         <v>-1.591E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1.2669999999999999E-3</v>
       </c>
@@ -33311,9 +33320,9 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>2.0879000000000002E-2</v>
       </c>
@@ -33420,7 +33429,7 @@
         <v>-1.257E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.9302E-2</v>
       </c>
@@ -33527,7 +33536,7 @@
         <v>-9.5619999999999993E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.524E-2</v>
       </c>
@@ -33634,7 +33643,7 @@
         <v>-7.6819999999999996E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.2312E-2</v>
       </c>
@@ -33741,7 +33750,7 @@
         <v>-5.8770000000000003E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>9.4999999999999998E-3</v>
       </c>
@@ -33848,7 +33857,7 @@
         <v>-4.6010000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9.1240000000000002E-3</v>
       </c>
@@ -33955,7 +33964,7 @@
         <v>-3.9170000000000003E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7.7140000000000004E-3</v>
       </c>
@@ -34062,7 +34071,7 @@
         <v>-2.748E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5.5050000000000003E-3</v>
       </c>
@@ -34169,7 +34178,7 @@
         <v>-2.0339999999999998E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3.7320000000000001E-3</v>
       </c>
@@ -34276,7 +34285,7 @@
         <v>-1.9139999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3.3189999999999999E-3</v>
       </c>
@@ -34383,7 +34392,7 @@
         <v>-1.41E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3.2529999999999998E-3</v>
       </c>
@@ -34490,7 +34499,7 @@
         <v>-1.6609999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2.0119999999999999E-3</v>
       </c>
@@ -34597,7 +34606,7 @@
         <v>-1.217E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>-2.7399999999999999E-4</v>
       </c>
@@ -34704,7 +34713,7 @@
         <v>-9.810000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>-3.8099999999999999E-4</v>
       </c>
@@ -34811,7 +34820,7 @@
         <v>-6.96E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>-1.5969999999999999E-3</v>
       </c>
@@ -34918,7 +34927,7 @@
         <v>-1.091E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>-2.8890000000000001E-3</v>
       </c>
@@ -35025,7 +35034,7 @@
         <v>-1.1620000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>-3.3140000000000001E-3</v>
       </c>
@@ -35132,7 +35141,7 @@
         <v>-1.1130000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>-4.1130000000000003E-3</v>
       </c>
@@ -35239,7 +35248,7 @@
         <v>-1.238E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>-5.1419999999999999E-3</v>
       </c>
@@ -35346,7 +35355,7 @@
         <v>-1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>-5.6829999999999997E-3</v>
       </c>
@@ -35453,7 +35462,7 @@
         <v>-1.2290000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>-5.7029999999999997E-3</v>
       </c>
@@ -35560,7 +35569,7 @@
         <v>-1.2830000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>-6.4180000000000001E-3</v>
       </c>
@@ -35667,7 +35676,7 @@
         <v>-1.271E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>-6.2769999999999996E-3</v>
       </c>
@@ -35774,7 +35783,7 @@
         <v>-1.1429999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>-6.8859999999999998E-3</v>
       </c>
@@ -35881,7 +35890,7 @@
         <v>-1.1130000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>-6.8690000000000001E-3</v>
       </c>
@@ -35988,7 +35997,7 @@
         <v>-1.139E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>-7.1209999999999997E-3</v>
       </c>
@@ -36095,7 +36104,7 @@
         <v>-1.1130000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>-7.3090000000000004E-3</v>
       </c>
@@ -36202,7 +36211,7 @@
         <v>-1.0189999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>-8.0160000000000006E-3</v>
       </c>
@@ -36309,7 +36318,7 @@
         <v>-1.0039999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>-7.7260000000000002E-3</v>
       </c>
@@ -36416,7 +36425,7 @@
         <v>-9.810000000000001E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>-7.8930000000000007E-3</v>
       </c>
@@ -36523,7 +36532,7 @@
         <v>-9.1E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>-8.0599999999999995E-3</v>
       </c>
@@ -36630,7 +36639,7 @@
         <v>-8.7900000000000001E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>-7.9869999999999993E-3</v>
       </c>
@@ -36737,7 +36746,7 @@
         <v>-7.3099999999999999E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>-8.1720000000000004E-3</v>
       </c>
@@ -36844,7 +36853,7 @@
         <v>-7.5799999999999999E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>-8.1639999999999994E-3</v>
       </c>
@@ -36951,7 +36960,7 @@
         <v>-7.6400000000000003E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>-7.9159999999999994E-3</v>
       </c>
@@ -37058,7 +37067,7 @@
         <v>-6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>-8.2349999999999993E-3</v>
       </c>
@@ -37165,7 +37174,7 @@
         <v>-8.0599999999999997E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>-8.5059999999999997E-3</v>
       </c>
@@ -37272,7 +37281,7 @@
         <v>-8.1800000000000004E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>-8.2760000000000004E-3</v>
       </c>
@@ -37379,7 +37388,7 @@
         <v>-9.4700000000000003E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-8.2889999999999995E-3</v>
       </c>
@@ -37486,7 +37495,7 @@
         <v>-1.0319999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-8.0040000000000007E-3</v>
       </c>
@@ -37593,7 +37602,7 @@
         <v>-1.163E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>-7.5979999999999997E-3</v>
       </c>
@@ -37700,7 +37709,7 @@
         <v>-1.2409999999999999E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>-7.6179999999999998E-3</v>
       </c>
@@ -37807,7 +37816,7 @@
         <v>-1.3979999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>-5.11E-3</v>
       </c>
@@ -37914,7 +37923,7 @@
         <v>-3.3399999999999999E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>-4.5620000000000001E-3</v>
       </c>
@@ -38021,7 +38030,7 @@
         <v>-3.4299999999999999E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>-3.9160000000000002E-3</v>
       </c>
@@ -38128,7 +38137,7 @@
         <v>-2.9100000000000003E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>-3.754E-3</v>
       </c>
@@ -38235,7 +38244,7 @@
         <v>-1.9799999999999999E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>-3.506E-3</v>
       </c>
@@ -38342,7 +38351,7 @@
         <v>-1.4799999999999999E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>-3.5560000000000001E-3</v>
       </c>
@@ -38449,7 +38458,7 @@
         <v>-4.3000000000000002E-5</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>-3.4680000000000002E-3</v>
       </c>
@@ -38556,7 +38565,7 @@
         <v>1.45E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>-3.4919999999999999E-3</v>
       </c>
@@ -38663,7 +38672,7 @@
         <v>1.5100000000000001E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>-3.7789999999999998E-3</v>
       </c>
@@ -38770,7 +38779,7 @@
         <v>1.6799999999999999E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>-4.0920000000000002E-3</v>
       </c>
@@ -38877,7 +38886,7 @@
         <v>2.1499999999999999E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>-4.3239999999999997E-3</v>
       </c>
@@ -38984,7 +38993,7 @@
         <v>2.0900000000000001E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>-4.5519999999999996E-3</v>
       </c>
@@ -39091,7 +39100,7 @@
         <v>2.14E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>-4.7559999999999998E-3</v>
       </c>
@@ -39198,7 +39207,7 @@
         <v>1.5200000000000001E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>-5.2339999999999999E-3</v>
       </c>
@@ -39305,7 +39314,7 @@
         <v>1.5799999999999999E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>-5.6220000000000003E-3</v>
       </c>
@@ -39412,7 +39421,7 @@
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>-5.6889999999999996E-3</v>
       </c>
@@ -39519,7 +39528,7 @@
         <v>6.3E-5</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>-5.7479999999999996E-3</v>
       </c>
@@ -39626,7 +39635,7 @@
         <v>-1.5999999999999999E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>-6.0000000000000001E-3</v>
       </c>
@@ -39733,7 +39742,7 @@
         <v>3.0000000000000001E-6</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>-6.1390000000000004E-3</v>
       </c>
@@ -39840,7 +39849,7 @@
         <v>-3.4E-5</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>-6.5399999999999998E-3</v>
       </c>
@@ -39947,7 +39956,7 @@
         <v>-6.0999999999999999E-5</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>-6.5319999999999996E-3</v>
       </c>
@@ -40054,7 +40063,7 @@
         <v>3.8000000000000002E-5</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>-6.7289999999999997E-3</v>
       </c>
@@ -40161,7 +40170,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>-6.744E-3</v>
       </c>
@@ -40268,7 +40277,7 @@
         <v>4.3000000000000002E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>-6.8960000000000002E-3</v>
       </c>
@@ -40375,7 +40384,7 @@
         <v>7.2999999999999999E-5</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>-6.9649999999999998E-3</v>
       </c>
@@ -40482,7 +40491,7 @@
         <v>1.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>-7.1570000000000002E-3</v>
       </c>
@@ -40589,7 +40598,7 @@
         <v>3.0000000000000001E-6</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>-7.084E-3</v>
       </c>
@@ -40696,7 +40705,7 @@
         <v>6.4999999999999994E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>-6.9839999999999998E-3</v>
       </c>
@@ -40803,7 +40812,7 @@
         <v>2.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>-7.2820000000000003E-3</v>
       </c>
@@ -40910,7 +40919,7 @@
         <v>-3.0000000000000001E-6</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>-7.3610000000000004E-3</v>
       </c>
@@ -41017,7 +41026,7 @@
         <v>5.5000000000000002E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>-7.5570000000000003E-3</v>
       </c>
@@ -41124,7 +41133,7 @@
         <v>7.8999999999999996E-5</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>-7.9100000000000004E-3</v>
       </c>
@@ -41231,7 +41240,7 @@
         <v>1.4899999999999999E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>-8.1840000000000003E-3</v>
       </c>
@@ -41338,7 +41347,7 @@
         <v>1.3300000000000001E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>-8.1200000000000005E-3</v>
       </c>
@@ -41445,7 +41454,7 @@
         <v>1.03E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>-8.5050000000000004E-3</v>
       </c>
@@ -41552,7 +41561,7 @@
         <v>7.8999999999999996E-5</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>-8.3789999999999993E-3</v>
       </c>
@@ -41659,7 +41668,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>-8.1370000000000001E-3</v>
       </c>
@@ -41766,7 +41775,7 @@
         <v>-1.18E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>-8.4119999999999993E-3</v>
       </c>
@@ -41873,7 +41882,7 @@
         <v>-7.3999999999999996E-5</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>-8.3499999999999998E-3</v>
       </c>
@@ -41980,7 +41989,7 @@
         <v>-1.9000000000000001E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>-7.9970000000000006E-3</v>
       </c>
@@ -42087,7 +42096,7 @@
         <v>-2.8600000000000001E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>-8.3020000000000004E-3</v>
       </c>
@@ -42194,7 +42203,7 @@
         <v>-2.7500000000000002E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>-1.2792E-2</v>
       </c>
